--- a/src/data/profiles/xlsx/bluff/profile 37-1 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 37-1 graph.xlsx
@@ -15295,11 +15295,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42171994"/>
-        <c:axId val="16992928"/>
+        <c:axId val="86052481"/>
+        <c:axId val="17765393"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42171994"/>
+        <c:axId val="86052481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15334,12 +15334,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16992928"/>
+        <c:crossAx val="17765393"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16992928"/>
+        <c:axId val="17765393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15383,7 +15383,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42171994"/>
+        <c:crossAx val="86052481"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
